--- a/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,79; 29,93</t>
+          <t>22,52; 29,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 40,48</t>
+          <t>35,08; 40,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,89; 35,11</t>
+          <t>30,81; 35,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 12,68</t>
+          <t>9,57; 12,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,17</t>
+          <t>13,86; 18,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,92</t>
+          <t>12,39; 14,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,55</t>
+          <t>7,79; 12,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 16,0</t>
+          <t>11,74; 16,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 13,67</t>
+          <t>10,41; 13,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,4</t>
+          <t>12,04; 14,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,9</t>
+          <t>18,42; 21,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 17,92</t>
+          <t>16,08; 18,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,32</t>
+          <t>22,79; 29,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,08; 40,7</t>
+          <t>35,12; 40,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,81; 35,32</t>
+          <t>30,89; 35,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,43</t>
+          <t>9,65; 12,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,86; 18,23</t>
+          <t>13,85; 18,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,94</t>
+          <t>12,43; 14,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,71</t>
+          <t>7,76; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,24</t>
+          <t>11,45; 16,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 13,66</t>
+          <t>10,38; 13,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,34</t>
+          <t>12,0; 14,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 21,92</t>
+          <t>18,37; 21,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 18,02</t>
+          <t>16,02; 17,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,79; 29,93</t>
+          <t>21,96; 28,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 40,48</t>
+          <t>34,26; 39,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,89; 35,11</t>
+          <t>29,93; 34,06</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>12,38%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 12,68</t>
+          <t>7,01; 11,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,17</t>
+          <t>11,05; 17,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,92</t>
+          <t>9,87; 13,95</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,55</t>
+          <t>7,77; 12,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 16,0</t>
+          <t>11,54; 16,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 13,67</t>
+          <t>10,36; 13,65</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,4</t>
+          <t>9,65; 13,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,37; 21,9</t>
+          <t>15,37; 21,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 17,92</t>
+          <t>13,49; 16,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,96; 28,94</t>
+          <t>21,6; 28,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 39,49</t>
+          <t>34,24; 39,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 34,06</t>
+          <t>30,02; 34,13</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,61</t>
+          <t>6,9; 11,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,34</t>
+          <t>10,96; 17,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 13,95</t>
+          <t>9,75; 13,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,66</t>
+          <t>7,97; 13,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,16</t>
+          <t>11,67; 16,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,65</t>
+          <t>10,18; 13,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,62</t>
+          <t>9,39; 13,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,25</t>
+          <t>15,54; 21,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 16,92</t>
+          <t>13,7; 17,06</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene dificultad para dormirse por la noche</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>128582</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>277481</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>406062</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>111217; 147600</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>257881; 298686</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>380679; 432787</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>222433</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>337750</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>560183</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>158048; 264452</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>245280; 387198</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>441348; 630980</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>65229</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>90239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>155468</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>51514; 84145</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77067; 106420</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133121; 176864</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>416243</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>705470</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1121713</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>324094; 466382</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>567445; 772275</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>972628; 1211881</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>